--- a/CAD and ork files/Book1.xlsx
+++ b/CAD and ork files/Book1.xlsx
@@ -1,18 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git-roguextech\jalouke-Level_3\CAD and ork files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6B250A-CB77-4A20-BD24-351BDAD8CEC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7125"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -105,8 +120,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,43 +133,52 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Ubuntu Mono"/>
+      <family val="3"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Ubuntu Mono"/>
+      <family val="3"/>
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Ubuntu Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Ubuntu Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Ubuntu Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -166,21 +193,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,230 +483,238 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="39.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="3">
         <f>SUM(B:B)</f>
         <v>2899.2700000000004</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>520</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>212.49</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>459.95</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>169.95</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3">
         <v>496</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <f>30*2</f>
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C12">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3">
         <v>209.62</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1">
-      <c r="A13" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>276</v>
       </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>110.4</v>
       </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>59.8</v>
       </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <f>75*2</f>
         <v>150</v>
       </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>69</v>
       </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
+      <c r="B18" s="3"/>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
         <f>20*13.49</f>
         <v>269.8</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="3">
         <f>13.99*5</f>
         <v>69.95</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="5" t="s">
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="3">
         <v>94.95</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="3">
         <v>26.98</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="C25" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <f>SUM(C:C)</f>
         <v>705.62</v>
       </c>
